--- a/data/trans_camb/P36B13_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P36B13_R-Habitat-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.47318676038972</v>
+        <v>-11.7994640351506</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.5550720355281</v>
+        <v>-8.583493721809219</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.14473095083839</v>
+        <v>-9.198395863369067</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-4.877943750760929</v>
+        <v>-5.188809294263682</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-3.382119968102194</v>
+        <v>-3.588670887495654</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-5.099651894098362</v>
+        <v>-5.113543825612898</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7591500993998266</v>
+        <v>-0.7620592809928683</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7658842750082695</v>
+        <v>-0.7635693624042275</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7282938956910935</v>
+        <v>-0.7336393417579503</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.4059880655555573</v>
+        <v>-0.4133085398990164</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.4329793022483352</v>
+        <v>-0.4393139843346511</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.502088627379802</v>
+        <v>-0.498763472337468</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-5.414600040358368</v>
+        <v>-5.414600040358366</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-5.473920144972535</v>
+        <v>-5.473920144972534</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-5.441383613136324</v>
+        <v>-5.441383613136326</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.161064049095437</v>
+        <v>-8.225110282384135</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.44525824678264</v>
+        <v>-7.585208856886995</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.559091557921399</v>
+        <v>-7.425619145651434</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.069404177331049</v>
+        <v>-2.265045169817089</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.39175624794425</v>
+        <v>-3.443792391953918</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-3.753022050136899</v>
+        <v>-3.685228252848104</v>
       </c>
     </row>
     <row r="13">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>-0.4300729315177801</v>
+        <v>-0.4300729315177799</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>-0.6470568525274918</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.5181693527129744</v>
+        <v>-0.5181693527129745</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5952052646562457</v>
+        <v>-0.5990779758988088</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7658801561497239</v>
+        <v>-0.7608693811603601</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6371489100016888</v>
+        <v>-0.6339852673902592</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1720579320062342</v>
+        <v>-0.2019340409089727</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.4672395016734955</v>
+        <v>-0.4823507676712587</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3758158695185483</v>
+        <v>-0.3745883386802197</v>
       </c>
     </row>
     <row r="16">
@@ -779,10 +779,10 @@
         <v>-5.688727411752607</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-3.334326363841198</v>
+        <v>-3.334326363841197</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-4.470904335012579</v>
+        <v>-4.470904335012578</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.212309440064812</v>
+        <v>-9.134523867876206</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.618539327874152</v>
+        <v>-5.555960579802627</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.539723270452298</v>
+        <v>-6.31884015974265</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-2.389967059893786</v>
+        <v>-2.383579350005889</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.9094743768768747</v>
+        <v>-1.123908282370393</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.361352724236603</v>
+        <v>-1.996822123721399</v>
       </c>
     </row>
     <row r="19">
@@ -830,10 +830,10 @@
         <v>-0.4338064995054569</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.4692803283684027</v>
+        <v>-0.4692803283684026</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.4444632534862147</v>
+        <v>-0.4444632534862145</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6193554204832553</v>
+        <v>-0.6196910440093862</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6616994069119715</v>
+        <v>-0.6650716322822476</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5876966783506432</v>
+        <v>-0.5762126927697649</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1871466414000668</v>
+        <v>-0.1990813365382546</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.117163914287457</v>
+        <v>-0.1467796170987518</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2563178723067421</v>
+        <v>-0.2343320387854688</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-1.411503644973837</v>
+        <v>-1.411503644973838</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>-1.730835711129779</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.594670820302163</v>
+        <v>-1.594670820302162</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.51901605096414</v>
+        <v>-4.48328240481757</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.638986979431639</v>
+        <v>-3.841915592161615</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.4929734796926</v>
+        <v>-3.306078902561233</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.389053897383223</v>
+        <v>1.634688319439981</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4572656845123847</v>
+        <v>0.3456199858101406</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.212708662232497</v>
+        <v>0.08118309525518055</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.1290119000813726</v>
+        <v>-0.1290119000813727</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>-0.2520500148785581</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1812847775691445</v>
+        <v>-0.1812847775691443</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3524025169349702</v>
+        <v>-0.3674704473246836</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4613056969884111</v>
+        <v>-0.4771651268225976</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.359634454383613</v>
+        <v>-0.3408447039788648</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1534900192952084</v>
+        <v>0.1883561467645146</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.08446523733525313</v>
+        <v>0.06026040282648135</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.02888242258172887</v>
+        <v>0.02167788902335239</v>
       </c>
     </row>
     <row r="28">
@@ -994,7 +994,7 @@
         <v>-3.97168202717515</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-4.456957896129127</v>
+        <v>-4.456957896129128</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.513153697122117</v>
+        <v>-6.550765791386285</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.076313456110231</v>
+        <v>-5.080998952613384</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.429206086880624</v>
+        <v>-5.441378004084004</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-3.365983858837008</v>
+        <v>-3.264024812957699</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.809811726353954</v>
+        <v>-2.860886507275472</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-3.481446777203558</v>
+        <v>-3.462642422301272</v>
       </c>
     </row>
     <row r="31">
@@ -1045,7 +1045,7 @@
         <v>-0.5061422343888472</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.4420108162744483</v>
+        <v>-0.4420108162744484</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.488462812668582</v>
+        <v>-0.4995334593519543</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5988036177719952</v>
+        <v>-0.5952972540790361</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5112543725221147</v>
+        <v>-0.5140855484491232</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.285462399055082</v>
+        <v>-0.2790389230929441</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3928746307261158</v>
+        <v>-0.3972778688464612</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.3590144408588149</v>
+        <v>-0.3608604102106658</v>
       </c>
     </row>
     <row r="34">
